--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/8_Antalya_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/8_Antalya_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0735AE4-CD28-458D-AF52-CB630CD8E195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57779DB9-9FBB-4B93-AAF4-DFF85D1A4EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{2153ADE1-ADE1-45AC-8FC1-6C8B0BEE19AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{A72789BE-3340-49BE-8E30-60F44B2F0CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -925,15 +925,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{738C51D9-18F6-406D-B05F-A0A6C1CFCD19}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C66C03B8-D150-4CAD-BD80-990D76F3CD3D}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{1E999A7B-F9C7-4517-85FF-DEAB942C52B0}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{651EBD7E-2CAF-49A6-83F4-428A4FE5937A}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{668D7AE3-F0AD-46C6-8E92-AC592D7063F1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{FFDB1458-E3DD-4EF7-8224-51D57530D361}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{60F9CB3E-BE42-4AD5-9622-7793F265264B}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{ACCC227A-66E7-4777-96A8-85D89DC938E0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{A2AE94A6-DA6D-4B34-A839-E97DDD361FA5}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{496135EB-EF30-4902-9BAE-5A75346E32C6}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BC5432A2-CA56-4A35-A59C-9FF52189358D}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{E85303F1-611C-47A3-ABF9-16D091718B08}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{DCF5E904-DC43-4C9F-8105-8BE7B3A5A672}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{8A09763E-ACD7-4A4F-B4BD-505082B4C3B4}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{982ED7A7-9DF4-4862-AF04-BBB0D3C44BD7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{30152C1A-E2BB-45D4-A3AA-84A88C5CAF0A}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{6F663DD5-18FD-4AB5-B376-35398C69E5FC}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{E57F747B-A501-4D66-BD59-CF9084A25ED6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1303,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE3C364-6AC8-4E8D-954F-4F063D228604}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331FF939-10C2-419B-9CC2-0D6876BE9823}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2625,7 +2625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4002A1-6515-4355-98B7-245B0F4439CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C379833F-0C76-4480-97B8-E39A60135C48}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3909,7 +3909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6369DB-35B4-449F-B2E4-102C0BA899A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA107E0C-4245-437C-AE0A-DC5DFEA96348}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5189,7 +5189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3BEEF8-7E84-4B42-80D3-51725C87CF24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDDC367-C730-4F65-9010-EE45B3A82911}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6463,7 +6463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F41F32-B863-4EF7-A331-24E0971961C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2490B66B-119E-476A-84E0-56B0AE9BD392}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7784,7 +7784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9944C9-1178-4BE6-816F-C406CF4C3B4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46F9F9D-A305-4DDD-B0E7-F8787AC53AD4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9105,7 +9105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FDA9D6-8A14-481B-A064-B1652B6EF7D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4225DFBA-1F46-437E-96A6-03C9CB9D212A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10426,7 +10426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC84F5AA-CB17-4724-9D4D-07468ED6C25F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E17B15B-15DA-45E9-8FD1-84D0A071CB6D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11747,7 +11747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0604A361-5B4C-4498-9238-457690454650}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8E55E-6F1E-429A-BFFA-4066C4D40F7A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13068,7 +13068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7172D4B2-1F33-495D-B315-34B396E01756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270CCFE5-9BE5-412C-8C7A-EDA8140F657E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14371,7 +14371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12287FDB-3F09-40FC-8A63-7C78E0DA0FC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781B7202-31B3-497A-ABC3-F95F1011B9B3}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15674,7 +15674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008069E5-AEA8-45E5-9D16-3AD0EE50F508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC47C36B-11FB-4C4A-B62D-CEA654F94B85}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
